--- a/client/public/sample_file/danh_sach_kh.xlsx
+++ b/client/public/sample_file/danh_sach_kh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BookVerse\public\sample_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Desktop\shopify\client\public\sample_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D50DFE-CB7F-4FCA-A374-095C136786B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB6F49C-FB6E-4260-A502-75A4DBBA141D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13812" yWindow="3348" windowWidth="8964" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,6 +133,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="[&lt;=9999999][$-1000000]###\-####;[$-1000000]\(#\)\ ###\-####"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,13 +179,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,14 +473,14 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:D11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -499,7 +505,7 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>911111101</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -513,8 +519,8 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>911111102</v>
+      <c r="C3" s="3">
+        <v>911111101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -527,8 +533,8 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>911111103</v>
+      <c r="C4" s="3">
+        <v>911111101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -541,8 +547,8 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>911111104</v>
+      <c r="C5" s="3">
+        <v>911111101</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -555,8 +561,8 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>911111105</v>
+      <c r="C6" s="3">
+        <v>911111101</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
@@ -569,8 +575,8 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
-        <v>911111106</v>
+      <c r="C7" s="3">
+        <v>911111101</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -583,8 +589,8 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>911111107</v>
+      <c r="C8" s="3">
+        <v>911111101</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -597,8 +603,8 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <v>911111108</v>
+      <c r="C9" s="3">
+        <v>911111101</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
@@ -611,8 +617,8 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
-        <v>911111109</v>
+      <c r="C10" s="3">
+        <v>911111101</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -625,8 +631,8 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
-        <v>911111110</v>
+      <c r="C11" s="3">
+        <v>911111101</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>33</v>
